--- a/리디북스 분석 및 일정/리디북스 데이터 테이블.xlsx
+++ b/리디북스 분석 및 일정/리디북스 데이터 테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekdh0\OneDrive\Documents\RidiBooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekdh0\OneDrive\Documents\New_RidiBooks\리디북스 분석 및 일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1560CC1A-1DAF-47AB-B42B-D851EAC6DE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2D891C-E2D2-492E-98FD-39CF69C4993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4397653-FF16-4D14-A908-7AB26439274F}"/>
+    <workbookView xWindow="29550" yWindow="330" windowWidth="21600" windowHeight="11385" xr2:uid="{C4397653-FF16-4D14-A908-7AB26439274F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="202">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,6 +736,106 @@
   </si>
   <si>
     <t>Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_authorname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>al_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>al_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aTagUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이태그에 넣을 url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림 메시지 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림 설정 (alarmCTX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 고유 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반도서 메시지 받을지 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로맨스 단행본 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로맨스 연재 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판타지 단행본 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판타지 연재 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순정 만화 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할리퀸 만화 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL소설 단행본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL소설 연재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL만화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19세 관람가 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성인 만화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성인 라이트 노벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,7 +943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,12 +971,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -887,11 +980,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E9F032-FDFC-4D5E-80EC-72CA111A620B}">
-  <dimension ref="B2:O134"/>
+  <dimension ref="B2:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1226,13 +1328,13 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -1305,7 +1407,7 @@
       <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1321,7 +1423,7 @@
       <c r="F9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
@@ -1413,13 +1515,13 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
@@ -1498,13 +1600,13 @@
       <c r="G22" s="7"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -1575,13 +1677,13 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
@@ -1616,621 +1718,631 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>26</v>
+      <c r="B33" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>97</v>
+      <c r="F33" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="5" t="s">
-        <v>28</v>
+      <c r="F34" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>140</v>
+        <v>26</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="5" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="5" t="s">
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="10" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="5" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="5" t="s">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="5" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1" t="s">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="5" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1" t="s">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="8"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="10" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="8"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="5" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="5" t="s">
+      <c r="E61" s="1"/>
+      <c r="F61" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="4" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4" t="s">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="10" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="3" t="s">
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="5" t="s">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="5" t="s">
+      <c r="E66" s="1"/>
+      <c r="F66" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G66" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="5" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="5" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="4" t="s">
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="10" t="s">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="3" t="s">
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C72" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="F73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="10" t="s">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="3" t="s">
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D78" s="1" t="s">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G82" s="13" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>131</v>
@@ -2240,511 +2352,480 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G87" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="1" t="s">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="C88" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1" t="s">
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="G88" s="13"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="B91" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G92" t="s">
-        <v>98</v>
+      <c r="B92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
+      <c r="B96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G96" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>88</v>
+      <c r="B97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B98" s="5" t="s">
-        <v>62</v>
+      <c r="B98" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B99" s="5" t="s">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1" t="s">
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="5" t="s">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="G108" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="5" t="s">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="5" t="s">
+      <c r="E109" s="1"/>
+      <c r="F109" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G105" s="15"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="5" t="s">
+      <c r="G109" s="14"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="5" t="s">
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="10" t="s">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="3" t="s">
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B113" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="1" t="s">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B114" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="C114" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1" t="s">
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="5" t="s">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B115" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="5" t="s">
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B112" s="5" t="s">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B116" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="5" t="s">
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B113" s="5" t="s">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B117" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="5" t="s">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B114" s="5" t="s">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B118" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="5" t="s">
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B117" s="11" t="s">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B121" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="13"/>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B118" s="3" t="s">
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="11"/>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B122" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E122" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F122" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B119" s="1" t="s">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="C123" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1" t="s">
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B120" s="5" t="s">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B124" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="5" t="s">
+      <c r="C124" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-    </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B121" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I121" s="2"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="2"/>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B122" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I122" s="2"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="8"/>
-      <c r="O122" s="2"/>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B123" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I123" s="2"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="2"/>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
@@ -2754,58 +2835,60 @@
       <c r="O124" s="2"/>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B125" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="13"/>
+      <c r="B125" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
+      <c r="J125" s="8"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
+      <c r="N125" s="8"/>
       <c r="O125" s="2"/>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B126" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>88</v>
+      <c r="B126" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
+      <c r="J126" s="8"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
+      <c r="N126" s="8"/>
       <c r="O126" s="2"/>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B127" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1" t="s">
-        <v>32</v>
+      <c r="B127" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="8"/>
@@ -2816,76 +2899,67 @@
       <c r="O127" s="2"/>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B128" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="I128" s="2"/>
-      <c r="J128" s="8"/>
+      <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
-      <c r="N128" s="8"/>
+      <c r="N128" s="2"/>
       <c r="O128" s="2"/>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B129" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="B129" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="11"/>
       <c r="I129" s="2"/>
-      <c r="J129" s="8"/>
+      <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
-      <c r="N129" s="8"/>
+      <c r="N129" s="2"/>
       <c r="O129" s="2"/>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B130" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="5" t="s">
-        <v>111</v>
+      <c r="B130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="I130" s="2"/>
-      <c r="J130" s="8"/>
+      <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
-      <c r="N130" s="8"/>
+      <c r="N130" s="2"/>
       <c r="O130" s="2"/>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B131" s="5" t="s">
-        <v>62</v>
+      <c r="B131" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E131" s="1"/>
-      <c r="F131" s="5" t="s">
-        <v>103</v>
+      <c r="F131" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="8"/>
@@ -2897,17 +2971,15 @@
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B132" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D132" s="1"/>
-      <c r="E132" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="E132" s="1"/>
       <c r="F132" s="5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="8"/>
@@ -2919,17 +2991,15 @@
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B133" s="5" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D133" s="1"/>
-      <c r="E133" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="E133" s="1"/>
       <c r="F133" s="5" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="8"/>
@@ -2941,50 +3011,356 @@
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B134" s="5" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D134" s="1"/>
-      <c r="E134" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="E134" s="1"/>
       <c r="F134" s="5" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
+      <c r="J134" s="8"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
+      <c r="N134" s="8"/>
       <c r="O134" s="2"/>
     </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B135" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I135" s="2"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="2"/>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B136" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I136" s="2"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="2"/>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B137" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I137" s="2"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="2"/>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B138" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B140" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B141" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B142" s="16">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B143" s="16">
+        <v>2</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B144" s="16">
+        <v>3</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B145" s="16">
+        <v>4</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B146" s="16">
+        <v>5</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B147" s="16">
+        <v>6</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B148" s="16">
+        <v>7</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B149" s="16">
+        <v>8</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B150" s="16">
+        <v>9</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B151" s="16">
+        <v>10</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B152" s="16">
+        <v>11</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B153" s="16">
+        <v>12</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B154" s="16">
+        <v>13</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B66:F66"/>
+  <mergeCells count="23">
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B70:F70"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B121:F121"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="G66:G67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/리디북스 분석 및 일정/리디북스 데이터 테이블.xlsx
+++ b/리디북스 분석 및 일정/리디북스 데이터 테이블.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekdh0\OneDrive\Documents\New_RidiBooks\리디북스 분석 및 일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\New_RidiBooks\리디북스 분석 및 일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2D891C-E2D2-492E-98FD-39CF69C4993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE84497-417F-4066-B8E2-41B5D7C729D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="330" windowWidth="21600" windowHeight="11385" xr2:uid="{C4397653-FF16-4D14-A908-7AB26439274F}"/>
+    <workbookView xWindow="3540" yWindow="4170" windowWidth="21600" windowHeight="11385" xr2:uid="{C4397653-FF16-4D14-A908-7AB26439274F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="204">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -836,6 +836,14 @@
   </si>
   <si>
     <t>기본값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_imageurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 이미지 주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,6 +979,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,20 +994,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E9F032-FDFC-4D5E-80EC-72CA111A620B}">
-  <dimension ref="B2:O154"/>
+  <dimension ref="B2:O155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1328,13 +1336,13 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -1407,7 +1415,7 @@
       <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1423,7 +1431,7 @@
       <c r="F9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
@@ -1515,13 +1523,13 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
@@ -1600,13 +1608,13 @@
       <c r="G22" s="7"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -1677,13 +1685,13 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
@@ -1799,13 +1807,13 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
@@ -1868,13 +1876,13 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
@@ -2003,22 +2011,20 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="5" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>141</v>
@@ -2028,124 +2034,121 @@
         <v>122</v>
       </c>
       <c r="F57" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="8"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="8"/>
-    </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="5" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="5" t="s">
+      <c r="E62" s="1"/>
+      <c r="F62" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4" t="s">
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-    </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>151</v>
@@ -2155,194 +2158,194 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G67" s="13"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="4" t="s">
+      <c r="G68" s="15"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="12" t="s">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="7"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="G73" s="7"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D75" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="12" t="s">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>131</v>
@@ -2352,57 +2355,57 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G83" s="13"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="12" t="s">
+      <c r="G84" s="15"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>131</v>
@@ -2412,93 +2415,98 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="12" t="s">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="3" t="s">
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F93" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>133</v>
@@ -2506,154 +2514,149 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G96" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D97" s="1"/>
-      <c r="E97" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
+      </c>
+      <c r="G97" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1" t="s">
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="12" t="s">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="3" t="s">
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="5" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D103" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="12" t="s">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F108" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="1" t="s">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>131</v>
@@ -2662,211 +2665,207 @@
         <v>85</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G109" s="14"/>
+      <c r="F109" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="5" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D110" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E110" s="1"/>
       <c r="F110" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" s="16"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B112" s="12" t="s">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B113" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B113" s="3" t="s">
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B114" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B114" s="1" t="s">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="C115" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1" t="s">
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B115" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B116" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B117" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B118" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B119" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B121" s="9" t="s">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B122" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="11"/>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="13"/>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B123" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E123" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B124" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="C124" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1" t="s">
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B124" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B125" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I125" s="2"/>
-      <c r="J125" s="8"/>
+      <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
-      <c r="N125" s="8"/>
+      <c r="N125" s="2"/>
       <c r="O125" s="2"/>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B126" s="5" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="E126" s="1"/>
       <c r="F126" s="5" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="8"/>
@@ -2878,17 +2877,17 @@
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B127" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>151</v>
+        <v>75</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="8"/>
@@ -2899,22 +2898,28 @@
       <c r="O127" s="2"/>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B128" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
+      <c r="J128" s="8"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
+      <c r="N128" s="8"/>
       <c r="O128" s="2"/>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B129" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="11"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
@@ -2924,21 +2929,13 @@
       <c r="O129" s="2"/>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="B130" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="13"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
@@ -2948,38 +2945,42 @@
       <c r="O130" s="2"/>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B131" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1" t="s">
-        <v>32</v>
+      <c r="B131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="I131" s="2"/>
-      <c r="J131" s="8"/>
+      <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
-      <c r="N131" s="8"/>
+      <c r="N131" s="2"/>
       <c r="O131" s="2"/>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B132" s="5" t="s">
-        <v>106</v>
+      <c r="B132" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D132" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="5" t="s">
-        <v>107</v>
+      <c r="F132" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="8"/>
@@ -2991,15 +2992,15 @@
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B133" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="8"/>
@@ -3011,15 +3012,15 @@
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B134" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="8"/>
@@ -3031,15 +3032,15 @@
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B135" s="5" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="8"/>
@@ -3051,17 +3052,15 @@
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B136" s="5" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D136" s="1"/>
-      <c r="E136" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="E136" s="1"/>
       <c r="F136" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="8"/>
@@ -3073,17 +3072,17 @@
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B137" s="5" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="8"/>
@@ -3095,7 +3094,7 @@
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B138" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>131</v>
@@ -3105,75 +3104,82 @@
         <v>122</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
+      <c r="J138" s="8"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
+      <c r="N138" s="8"/>
       <c r="O138" s="2"/>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B140" s="12" t="s">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B139" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B141" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B142" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B142" s="16">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B143" s="9">
         <v>1</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1">
-        <v>1</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B143" s="16">
-        <v>2</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B144" s="16">
-        <v>3</v>
+      <c r="B144" s="9">
+        <v>2</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>131</v>
@@ -3183,12 +3189,12 @@
         <v>0</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="16">
-        <v>4</v>
+      <c r="B145" s="9">
+        <v>3</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>131</v>
@@ -3198,12 +3204,12 @@
         <v>0</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B146" s="16">
-        <v>5</v>
+      <c r="B146" s="9">
+        <v>4</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>131</v>
@@ -3213,12 +3219,12 @@
         <v>0</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B147" s="16">
-        <v>6</v>
+      <c r="B147" s="9">
+        <v>5</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>131</v>
@@ -3228,12 +3234,12 @@
         <v>0</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B148" s="16">
-        <v>7</v>
+      <c r="B148" s="9">
+        <v>6</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>131</v>
@@ -3243,12 +3249,12 @@
         <v>0</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B149" s="16">
-        <v>8</v>
+      <c r="B149" s="9">
+        <v>7</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>131</v>
@@ -3258,12 +3264,12 @@
         <v>0</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B150" s="16">
-        <v>9</v>
+      <c r="B150" s="9">
+        <v>8</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>131</v>
@@ -3273,12 +3279,12 @@
         <v>0</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B151" s="16">
-        <v>10</v>
+      <c r="B151" s="9">
+        <v>9</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>131</v>
@@ -3288,12 +3294,12 @@
         <v>0</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B152" s="16">
-        <v>11</v>
+      <c r="B152" s="9">
+        <v>10</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>131</v>
@@ -3303,12 +3309,12 @@
         <v>0</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B153" s="16">
-        <v>12</v>
+      <c r="B153" s="9">
+        <v>11</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>131</v>
@@ -3318,12 +3324,12 @@
         <v>0</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B154" s="16">
-        <v>13</v>
+      <c r="B154" s="9">
+        <v>12</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>131</v>
@@ -3333,34 +3339,49 @@
         <v>0</v>
       </c>
       <c r="F154" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B155" s="9">
+        <v>13</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B92:F92"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B81:F81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
